--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T13:41:18+00:00</t>
+    <t>2026-01-13T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-13T14:53:18+00:00</t>
+    <t>2026-01-14T08:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T08:49:21+00:00</t>
+    <t>2026-01-14T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T08:59:11+00:00</t>
+    <t>2026-01-14T15:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:43:32+00:00</t>
+    <t>2026-01-14T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:54:50+00:00</t>
+    <t>2026-01-14T17:08:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T17:08:34+00:00</t>
+    <t>2026-01-15T07:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T07:29:36+00:00</t>
+    <t>2026-01-15T07:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T07:36:28+00:00</t>
+    <t>2026-01-15T08:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T08:13:22+00:00</t>
+    <t>2026-01-15T12:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:55:44+00:00</t>
+    <t>2026-01-15T13:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/main/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:14:51+00:00</t>
+    <t>2026-02-17T14:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
